--- a/Legenda.xlsx
+++ b/Legenda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Insurance RM_Developments\Analisi Dir. Inv\x Solina-Marchetti\Input dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Insurance RM_Developments\Analisi Dir. Inv\Portfolio_Analysis\Input dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27272334-7E7A-466E-8C76-4BC94B8A630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB80112F-F301-4A90-B70C-3D33CB428B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portafogli" sheetId="5" r:id="rId1"/>
@@ -417,9 +417,6 @@
     <t>JPY</t>
   </si>
   <si>
-    <t>ITL 10Y ITL_10yr - Spread Yield: 75.00bps</t>
-  </si>
-  <si>
     <t>MSCI World Net TR MSCIWLDNET - Index Level -10.00pct</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>MSCI Emerging Markets Net EUR (EUR)</t>
+  </si>
+  <si>
+    <t>ITL 10Y ITL_10yr - Spread Yield: 35.00bps (vs 75.00bps before february 2026)</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA164E3-A97B-4800-8048-EACFB27E48A0}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1031,7 +1031,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
@@ -1042,7 +1042,7 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -1053,7 +1053,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -1064,7 +1064,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -1075,7 +1075,7 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
@@ -1086,7 +1086,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
@@ -1097,7 +1097,7 @@
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
         <v>56</v>
@@ -1108,7 +1108,7 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
@@ -1152,7 +1152,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -1185,7 +1185,7 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -1196,7 +1196,7 @@
         <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
@@ -1207,7 +1207,7 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -1218,7 +1218,7 @@
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
         <v>81</v>
@@ -1273,7 +1273,7 @@
         <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
         <v>95</v>
@@ -1284,7 +1284,7 @@
         <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
         <v>95</v>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FCB092-0DB6-4EDB-948E-4EFFCB58E9EF}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1395,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
